--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,16 +37,28 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,19 +128,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -147,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,7 +153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,33 +162,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -256,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,10 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -499,17 +470,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -517,367 +488,190 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>42987</v>
+        <v>43400</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1023</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>1603</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>442</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>728</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43274</v>
+        <v>43616</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1223</v>
+        <v>1803</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <f>C4-C2</f>
         <v>200</v>
       </c>
-      <c r="E4" s="8">
-        <v>4.29</v>
+      <c r="E4" s="9">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>914</v>
+      </c>
+      <c r="G4" s="11">
+        <v>914</v>
+      </c>
+      <c r="H4" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>542</v>
+        <v>728</v>
       </c>
       <c r="D5" s="3">
+        <f>C5-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43366</v>
+        <v>43825</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>1423</v>
+        <v>2003</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f>C6-C4</f>
         <v>200</v>
       </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
+      <c r="E6" s="9">
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>898</v>
+      </c>
+      <c r="G6" s="11">
+        <v>898</v>
+      </c>
+      <c r="H6" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
+        <f>C7-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>249.10000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43400</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <f>D7*E7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>1603</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>728</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43616</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1803</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C8</f>
-        <v>200</v>
-      </c>
-      <c r="E10" s="17">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>728</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43825</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="17">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>728</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -887,12 +681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,12 +695,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +143,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -169,6 +168,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -229,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -470,17 +472,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -495,183 +497,227 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>43400</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>1603</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>728</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>43616</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>1803</v>
       </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>200</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>4.57</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>914</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>914</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>728</v>
       </c>
-      <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>2.39</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43825</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4">
-        <v>43825</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D6" s="3">
-        <f>C6-C4</f>
         <v>200</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>D6*E6</f>
         <v>898</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>898</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>914</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>728</v>
       </c>
-      <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>D7*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2250</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>1109.03</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1109.03</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1110.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>728</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>2921.0299999999997</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H2:H9)</f>
+        <v>2938.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -681,12 +727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -695,12 +741,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -476,7 +476,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -706,18 +706,68 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44082</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2250</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>0</v>
+      </c>
       <c r="G10" s="10">
-        <f>SUM(G2:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>728</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <f>SUM(G2:G11)</f>
         <v>2921.0299999999997</v>
       </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>2938.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H12" s="10">
+        <f>SUM(H2:H11)</f>
+        <v>3772.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,7 +168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,7 +478,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -623,7 +622,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>898</v>
       </c>
       <c r="G6" s="10">
@@ -649,7 +648,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="10"/>
@@ -673,7 +672,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>1109.03</v>
       </c>
       <c r="G8" s="10">
@@ -699,7 +698,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="10"/>
@@ -716,14 +715,14 @@
         <v>2250</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
         <v>0</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="10">
@@ -742,32 +741,68 @@
         <v>728</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2250</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>0</v>
+      </c>
       <c r="G12" s="10">
-        <f>SUM(G2:G11)</f>
-        <v>2921.0299999999997</v>
+        <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f>SUM(H2:H11)</f>
-        <v>3772.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>728</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,21 +712,22 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>2250</v>
+        <v>2400</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ref="D10:D11" si="3">C10-C8</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>706.5</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
+        <f>SUM(F10,F11)</f>
+        <v>834</v>
       </c>
       <c r="H10" s="10">
         <v>834</v>
@@ -738,18 +739,18 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>728</v>
+        <v>778</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -762,21 +763,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>2250</v>
+        <v>2550</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>0</v>
+        <v>706.5</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
+        <f>SUM(F12,F13)</f>
+        <v>834</v>
       </c>
       <c r="H12" s="10">
         <v>834</v>
@@ -788,18 +790,18 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>728</v>
+        <v>828</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -805,6 +805,57 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44299</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2550</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>282.60000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>828</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,6 +856,57 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2550</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>706.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>828</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,6 +168,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,22 +815,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>2550</v>
+        <v>2610</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ref="D14:D15" si="6">C14-C12</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>0</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>0</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="H14" s="10">
         <v>282.60000000000002</v>
@@ -865,22 +866,22 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>2550</v>
+        <v>2760</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
-        <v>0</v>
+        <f>C16-C14</f>
+        <v>150</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
-        <v>0</v>
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>706.5</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>0</v>
+        <v>706.5</v>
       </c>
       <c r="H16" s="10">
         <v>706.5</v>
@@ -895,18 +896,130 @@
         <v>828</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D17" si="9">C17-C15</f>
         <v>0</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44428</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2854</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
+        <v>94</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
+        <v>466.24</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>519.84</v>
+      </c>
+      <c r="H18" s="10">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>848</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="11"/>
+        <v>53.6</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44445</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2854</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>848</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>6097.97</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>6117.6100000000006</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1012,11 +1012,62 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="11">
+      <c r="A22" s="3">
+        <v>44487</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2854</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>896.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>848</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="11">
         <f>SUM(G2:G19)</f>
         <v>6097.97</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H19)</f>
         <v>6117.6100000000006</v>
       </c>

--- a/sputnik/personal/ee/324ee.xlsx
+++ b/sputnik/personal/ee/324ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1063,13 +1063,64 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="11">
-        <f>SUM(G2:G19)</f>
+      <c r="A24" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2854</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="16">C24-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="17">D24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>675.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>848</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="11">
+        <f>SUM(G2:G25)</f>
         <v>6097.97</v>
       </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>6117.6100000000006</v>
+      <c r="H26" s="11">
+        <f>SUM(H2:H25)</f>
+        <v>8682.01</v>
       </c>
     </row>
   </sheetData>
